--- a/bomchik.xlsx
+++ b/bomchik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OvcharkaBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BEA569-AE25-48E8-B6E1-B8C09FB1AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FEE804-70DE-4B13-BD48-015337A32C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F3496C9-2471-4488-8E6E-EC58B615E37F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
   <si>
     <t>Line #</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>Подходит ли посадочное место</t>
+  </si>
+  <si>
+    <t>Правильная ли распиновка</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -542,11 +554,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -564,36 +579,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -937,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E7E466-C3B5-4DBA-B27E-721E1BEF8A79}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +943,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -989,8 +974,12 @@
       <c r="J1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1291,7 +1280,9 @@
         <v>126</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1353,7 +1344,9 @@
         <v>126</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,7 +1440,9 @@
         <v>129</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2119,7 +2114,9 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2241,7 +2238,9 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2404,6 +2403,11 @@
       </c>
       <c r="I48" s="1" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/bomchik.xlsx
+++ b/bomchik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OvcharkaBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FEE804-70DE-4B13-BD48-015337A32C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BF560-1477-46E3-B9C7-C58217DD19E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F3496C9-2471-4488-8E6E-EC58B615E37F}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>47мкГн</t>
   </si>
   <si>
-    <t>Резистор, типоразмера 2010</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -450,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Дросель, типоразмера 2010</t>
   </si>
 </sst>
 </file>
@@ -922,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E7E466-C3B5-4DBA-B27E-721E1BEF8A79}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -960,28 +960,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1010,8 +1010,12 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f t="shared" ref="M2:M45" si="0">G2/E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1028,20 +1032,24 @@
         <v>3</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F46" si="0">E3*2</f>
+        <f t="shared" ref="F3:F46" si="1">E3*2</f>
         <v>6</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H48" si="1">G3-F3</f>
+        <f t="shared" ref="H3:H48" si="2">G3-F3</f>
         <v>-6</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1058,20 +1066,24 @@
         <v>4</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1088,20 +1100,24 @@
         <v>2</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1118,20 +1134,24 @@
         <v>7</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1148,20 +1168,24 @@
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1178,20 +1202,24 @@
         <v>8</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-16</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1208,20 +1236,24 @@
         <v>5</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1238,20 +1270,24 @@
         <v>4</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
@@ -1266,26 +1302,30 @@
         <v>1</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1302,20 +1342,24 @@
         <v>1</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -1330,26 +1374,30 @@
         <v>1</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G13" s="1">
         <v>10</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1366,20 +1414,24 @@
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1396,20 +1448,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1426,26 +1482,30 @@
         <v>1</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1462,20 +1522,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
@@ -1492,20 +1556,24 @@
         <v>4</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1522,20 +1590,24 @@
         <v>1</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1552,20 +1624,24 @@
         <v>1</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1582,24 +1658,28 @@
         <v>1</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -1616,22 +1696,26 @@
         <v>1</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G22" s="7">
         <v>100</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -1648,22 +1732,26 @@
         <v>1</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G23" s="7">
         <v>100</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1680,22 +1768,26 @@
         <v>4</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G24" s="7">
         <v>100</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -1703,440 +1795,496 @@
         <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="E26" s="7">
         <v>2</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E27" s="7">
         <v>3</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="7">
         <v>7</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="E29" s="7">
         <v>1</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E30" s="7">
         <v>1</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E31" s="7">
         <v>1</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="E32" s="7">
         <v>2</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="E33" s="7">
         <v>1</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E34" s="7">
         <v>1</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="E35" s="7">
         <v>2</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G35" s="7">
         <v>50</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="E36" s="7">
         <v>2</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G38" s="1">
         <v>50</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G39" s="1"/>
@@ -2148,25 +2296,29 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G40" s="1"/>
@@ -2178,236 +2330,264 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E42" s="1">
         <v>8</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="G42" s="1">
         <v>20</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G43" s="1">
         <v>20</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G44" s="1">
         <v>15</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G45" s="1">
         <v>10</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G46" s="1">
         <v>7</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f>G46/E46</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" s="9">
         <v>10</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="9">
         <v>10</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/bomchik.xlsx
+++ b/bomchik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OvcharkaBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BF560-1477-46E3-B9C7-C58217DD19E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E56134C-4B93-46A7-8758-BCE7864B62E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F3496C9-2471-4488-8E6E-EC58B615E37F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="137">
   <si>
     <t>Line #</t>
   </si>
@@ -446,10 +446,16 @@
     <t>Да</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Дросель, типоразмера 2010</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>Линейный регулятор с малым падением напряжения, 1А, 3.3В [SOT-223]</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -924,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E7E466-C3B5-4DBA-B27E-721E1BEF8A79}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1801,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>67</v>
@@ -2585,10 +2591,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>133</v>
-      </c>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
